--- a/Archivos/Excel/inventario.xlsx
+++ b/Archivos/Excel/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,19 +735,61 @@
           <t>45</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>45</v>
-      </c>
-      <c r="E8" t="n">
-        <v>45</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GHMN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GHM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GHM</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>54</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Archivos/Excel/inventario.xlsx
+++ b/Archivos/Excel/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,18 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>39029615</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>39104011</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ARANDELA PLANA</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>arandelas</t>
+          <t>ARANDELAS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -499,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -516,12 +520,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>39104011</t>
+          <t>JR551002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARANDELA PLANA</t>
+          <t>ARANDELAS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,17 +535,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -558,28 +558,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JR551002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ARANDELAS</t>
-        </is>
-      </c>
+          <t>39029615</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ARANDELAS</t>
+          <t>arandelas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31151060</t>
+          <t>36DH4174</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JGO DE ZAPATA DE FRENO</t>
+          <t>JGO DE BALATAS DE FRENO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>320</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36DH4174</t>
+          <t>DE151037</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -653,22 +653,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>260</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -680,12 +680,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36JU0114</t>
+          <t>JL131832</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JGO DE FRENO DEL CON CUNA</t>
+          <t>JGO DE BALATAS DE FRENO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -722,32 +722,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>JW131807</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>JGO DE BALATAS DE FRENO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>BALATAS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>260</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -764,33 +764,2937 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GHMN</t>
+          <t>JL131805</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GHM</t>
+          <t>JGO DE BALATAS DE FRENO DEL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GHM</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>54</v>
-      </c>
-      <c r="E9" t="n">
-        <v>54</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
+          <t>BALATAS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DK151085</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>JGO DE BALATAS DE FRENO TRAS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BALATAS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DK151038</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>JGO DE COJIN DE FRENO TRA CON CUNAS HASTA 2011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BALATAS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>36JU0114</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>JGO DE FRENO DEL CON CUNA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BALATAS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>31151060</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>JGO DE ZAPATA DE FRENO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BALATAS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DG151096</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>JGO DE ZAPATA DE FRENO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BALATAS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>JN131812</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>JGO DE ZAPATA DE FRENO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BALATAS</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>36PD0059</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>JGO DE ZAPATAS SIN ASBESTO BSIV</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BALATAS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>JR131827</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PASTILLAS DE FRENO DEL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BALATAS</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JE511049</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BALERO ARBOL DE LEVAS D102C</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DG181005</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BALERO CONICO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>39100820</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BALERO DE AGUJAS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>JE621403</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BALERO DE AGUJAS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>39188020</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 15 X 32 X 9 6002C3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LPB00002</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 15 X 35 X 11 C31RSHN3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LPB00003</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 22 X 56 X 16 C3L1RSHN3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>39193120</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 28 X 68 X 18 PARA CARTER IZQ</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JC101085</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 6002 C3H</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>39260120</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 61905 25 X 42 X 9 PARA CARTER</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>KPBC6202</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 6202</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>39260220</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 6202 HN3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>KPBB6300</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 6300</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KPBB6301</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 6301</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>KPBC6302</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 6302</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>KPBF6304</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS 6304</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AP101236</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS BALERO 12 X 28 X 8</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1170110</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS CAMP DEL 6</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>39240320</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS EJE EMBRAGUE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LPA00004</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS ID 15XOD 28XTHK 7</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>59200028</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BALERO DE BOLAS PARA CARTER DER</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>JG551423</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BALERO INTERNO DE EMBRAGUE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>JA541012</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GUIA PEDAL DE ARRANQUE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DH121101</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IMAN DE TRIP</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>36JL0025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>JGO DE PARADOR CENTRAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BALEROS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>56JR9J33</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MANUBRIO</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>C/MANUBRIOS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DU181021</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MANUBRIO</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>C/MANUBRIOS</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>JM181008</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MANUBRIO</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>C/MANUBRIOS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>JZ151070</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MANUBRIO</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>C/MANUBRIOS</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PD151007</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MANUBRIO A101</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>C/MANUBRIOS</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PF231201</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PROTECTOR DE MOTOR</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>C/MANUBRIOS</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DF161425</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SOPORTE DE POSAPIE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>C/MANUBRIOS</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>JF151041</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TUBO DE MANUBRIO DOMINAR 400 V1 / UG / TOURING / 250 BAJAJ</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>C/MANUBRIOS</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>31101033</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CADENA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PD511243</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CADENA </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DT141005</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CADENA DE 110 ESLABONES</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>JL511222</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CADENA DE DISTRIBUCION</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JY511220</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CADENA DE DISTRIBUCION</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DK101064</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CADENA DE DISTRIBUCION 100 ESLABONES</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>JA531011</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CADENA DE DISTRIBUCION 92 ESLABONES</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DS109905</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CADENA DE DISTRIBUCION 94 ESLABONES</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>JE511230</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CADENA DE DISTRIBUCION 94 ESLABONES</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>JE511236</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CADENA DE DISTRIBUCION D106 A</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>JE511233</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CADENA DE DISTRIBUCION K11</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>JL141000</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CADENA TRACCION NS 200</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>JF141001</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CANDADO DE CADENA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>JD122013</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>GOMA PATIN DE CADENA</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>JF122105</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>GOMA PATIN DE CADENA</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>JL122003</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>GOMA PATIN DE CADENA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>JY511229</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>GUIA DE CADENA LAT</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>36311006</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>JGO DE GUIA DE CADENA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>36JE0003</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>JGO DE GUIA DE CADENA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>36JF0005</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>JGO DE GUIA DE CADENA</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>36JF0055</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>JGO DE GUIA DE CADENA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>36JF0197</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>JGO DE GUIA DE CADENA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>36JZ0122</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>JGO DE GUIA DE CADENA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>36PA0115</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>JGO DE GUIA DE CADENA</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>36PF0061</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>JGO DE GUIA DE CADENA</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>DK101330</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JGO DE GUIA DE CADENA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>36JR0037</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JGO DE GUÍA DE CADENA </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>36JL0001</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>JGO DE GUIA DE CADENA DISTRIBUCION</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CADENAS</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>
